--- a/Divisions/P1.xlsx
+++ b/Divisions/P1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\Rsoccer\Divisions\"/>
     </mc:Choice>
@@ -18,13 +18,14 @@
     <sheet name="Goals conceded" sheetId="4" r:id="rId4"/>
     <sheet name="Total Goals form" sheetId="5" r:id="rId5"/>
     <sheet name="Goal totals v2" sheetId="6" r:id="rId6"/>
+    <sheet name="L6" r:id="rId10" sheetId="7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6584" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6678" uniqueCount="133">
   <si>
     <t>Team</t>
   </si>
@@ -196,11 +197,240 @@
   <si>
     <t>p1_avg_totalgoals</t>
   </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Goals scored</t>
+  </si>
+  <si>
+    <t>Goals conceded</t>
+  </si>
+  <si>
+    <t>Total Goals</t>
+  </si>
+  <si>
+    <t>Belenenses,L D W D W L</t>
+  </si>
+  <si>
+    <t>Benfica,W W L W W W</t>
+  </si>
+  <si>
+    <t>Boavista,W D W L L D</t>
+  </si>
+  <si>
+    <t>Famalicao,W D L W D L</t>
+  </si>
+  <si>
+    <t>Farense,L L L W D D</t>
+  </si>
+  <si>
+    <t>Gil Vicente,W L W L L D</t>
+  </si>
+  <si>
+    <t>Guimaraes,L L W L L W</t>
+  </si>
+  <si>
+    <t>Maritimo,L W L W W W</t>
+  </si>
+  <si>
+    <t>Moreirense,D W L D D L</t>
+  </si>
+  <si>
+    <t>Nacional,L L L L W L</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira,L L L L D W</t>
+  </si>
+  <si>
+    <t>Portimonense,W W W L D D</t>
+  </si>
+  <si>
+    <t>Porto,W W W W D W</t>
+  </si>
+  <si>
+    <t>Rio Ave,L D D L D D</t>
+  </si>
+  <si>
+    <t>Santa Clara,L W L D L D</t>
+  </si>
+  <si>
+    <t>Sp Braga,W D D W L L</t>
+  </si>
+  <si>
+    <t>Sp Lisbon,D D W D W W</t>
+  </si>
+  <si>
+    <t>Tondela,W L W W D L</t>
+  </si>
+  <si>
+    <t>Belenenses,0 1 2 2 2 0</t>
+  </si>
+  <si>
+    <t>Benfica,1 5 1 5 2 2</t>
+  </si>
+  <si>
+    <t>Boavista,2 3 2 1 0 3</t>
+  </si>
+  <si>
+    <t>Famalicao,2 1 0 3 2 2</t>
+  </si>
+  <si>
+    <t>Farense,1 0 0 2 1 0</t>
+  </si>
+  <si>
+    <t>Gil Vicente,2 1 2 0 1 0</t>
+  </si>
+  <si>
+    <t>Guimaraes,1 0 1 0 0 2</t>
+  </si>
+  <si>
+    <t>Maritimo,0 1 0 1 1 1</t>
+  </si>
+  <si>
+    <t>Moreirense,1 2 2 0 1 0</t>
+  </si>
+  <si>
+    <t>Nacional,1 1 0 1 1 0</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira,0 0 0 0 1 1</t>
+  </si>
+  <si>
+    <t>Portimonense,5 3 1 1 1 0</t>
+  </si>
+  <si>
+    <t>Porto,2 2 1 1 1 3</t>
+  </si>
+  <si>
+    <t>Rio Ave,0 3 0 0 1 0</t>
+  </si>
+  <si>
+    <t>Santa Clara,1 5 0 0 1 3</t>
+  </si>
+  <si>
+    <t>Sp Braga,2 1 0 2 0 0</t>
+  </si>
+  <si>
+    <t>Sp Lisbon,1 1 1 2 1 2</t>
+  </si>
+  <si>
+    <t>Tondela,2 0 3 2 2 0</t>
+  </si>
+  <si>
+    <t>Belenenses,2 1 0 2 1 1</t>
+  </si>
+  <si>
+    <t>Benfica,0 0 2 1 1 0</t>
+  </si>
+  <si>
+    <t>Boavista,0 3 0 2 1 3</t>
+  </si>
+  <si>
+    <t>Famalicao,0 1 1 0 2 3</t>
+  </si>
+  <si>
+    <t>Farense,2 1 1 0 1 0</t>
+  </si>
+  <si>
+    <t>Gil Vicente,0 2 1 3 2 0</t>
+  </si>
+  <si>
+    <t>Guimaraes,2 3 0 1 1 0</t>
+  </si>
+  <si>
+    <t>Maritimo,1 0 2 0 0 0</t>
+  </si>
+  <si>
+    <t>Moreirense,1 1 3 0 1 2</t>
+  </si>
+  <si>
+    <t>Nacional,5 5 1 2 0 2</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira,2 5 2 2 1 0</t>
+  </si>
+  <si>
+    <t>Portimonense,1 0 0 5 1 0</t>
+  </si>
+  <si>
+    <t>Porto,1 0 0 0 1 2</t>
+  </si>
+  <si>
+    <t>Rio Ave,2 3 0 1 1 0</t>
+  </si>
+  <si>
+    <t>Santa Clara,2 1 1 0 2 3</t>
+  </si>
+  <si>
+    <t>Sp Braga,1 1 0 1 1 1</t>
+  </si>
+  <si>
+    <t>Sp Lisbon,1 1 0 2 0 0</t>
+  </si>
+  <si>
+    <t>Tondela,1 2 2 1 2 2</t>
+  </si>
+  <si>
+    <t>Belenenses,2 2 2 4 3 1</t>
+  </si>
+  <si>
+    <t>Benfica,1 5 3 6 3 2</t>
+  </si>
+  <si>
+    <t>Boavista,2 6 2 3 1 6</t>
+  </si>
+  <si>
+    <t>Famalicao,2 2 1 3 4 5</t>
+  </si>
+  <si>
+    <t>Farense,3 1 1 2 2 0</t>
+  </si>
+  <si>
+    <t>Gil Vicente,2 3 3 3 3 0</t>
+  </si>
+  <si>
+    <t>Guimaraes,3 3 1 1 1 2</t>
+  </si>
+  <si>
+    <t>Maritimo,1 1 2 1 1 1</t>
+  </si>
+  <si>
+    <t>Moreirense,2 3 5 0 2 2</t>
+  </si>
+  <si>
+    <t>Nacional,6 6 1 3 1 2</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira,2 5 2 2 2 1</t>
+  </si>
+  <si>
+    <t>Portimonense,6 3 1 6 2 0</t>
+  </si>
+  <si>
+    <t>Porto,3 2 1 1 2 5</t>
+  </si>
+  <si>
+    <t>Rio Ave,2 6 0 1 2 0</t>
+  </si>
+  <si>
+    <t>Santa Clara,3 6 1 0 3 6</t>
+  </si>
+  <si>
+    <t>Sp Braga,3 2 0 3 1 1</t>
+  </si>
+  <si>
+    <t>Sp Lisbon,2 2 1 4 1 2</t>
+  </si>
+  <si>
+    <t>Tondela,3 2 5 3 4 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1188,22 +1418,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="43" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="49" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="60" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="61" max="67" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="68" max="80" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="81" max="86" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="87" max="93" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="94" max="98" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="99" max="111" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="2" max="12" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="13" max="22" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="23" max="27" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="28" max="31" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="32" max="35" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="36" max="43" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="44" max="49" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="50" max="60" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="61" max="67" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="68" max="80" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="81" max="86" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="87" max="93" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="94" max="98" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="99" max="111" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:112" x14ac:dyDescent="0.25">
@@ -7653,22 +7883,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="43" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="49" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="60" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="61" max="67" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="68" max="80" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="81" max="86" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="87" max="93" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="94" max="98" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="99" max="111" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="2" max="12" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="13" max="22" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="23" max="27" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="28" max="31" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="32" max="35" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="36" max="43" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="44" max="49" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="50" max="60" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="61" max="67" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="68" max="80" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="81" max="86" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="87" max="93" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="94" max="98" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="99" max="111" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:112" x14ac:dyDescent="0.25">
@@ -14119,22 +14349,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="43" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="49" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="60" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="61" max="67" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="68" max="80" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="81" max="86" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="87" max="93" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="94" max="98" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="99" max="111" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="2" max="12" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="13" max="22" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="23" max="27" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="28" max="31" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="32" max="35" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="36" max="43" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="44" max="49" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="50" max="60" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="61" max="67" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="68" max="80" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="81" max="86" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="87" max="93" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="94" max="98" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="99" max="111" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:112" x14ac:dyDescent="0.25">
@@ -20585,22 +20815,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="22" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="27" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="36" max="43" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="49" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="60" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="61" max="67" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="68" max="80" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="81" max="86" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="87" max="93" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="94" max="98" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="99" max="111" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="2" max="12" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="13" max="22" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="23" max="27" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="28" max="31" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="32" max="35" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="36" max="43" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="44" max="49" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="50" max="60" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="61" max="67" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="68" max="80" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="81" max="86" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="87" max="93" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="94" max="98" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="99" max="111" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:112" x14ac:dyDescent="0.25">
@@ -27050,7 +27280,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="24" max="24" width="18.5703125" customWidth="1"/>
+    <col min="24" max="24" customWidth="true" width="18.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -28503,4 +28733,338 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" t="s">
+        <v>112</v>
+      </c>
+      <c r="E17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Divisions/P1.xlsx
+++ b/Divisions/P1.xlsx
@@ -1206,166 +1206,166 @@
     <t>Tondela,W D L D L L</t>
   </si>
   <si>
-    <t>Belenenses,2 2 0 1 3 0</t>
-  </si>
-  <si>
-    <t>Benfica,5 2 2 1 3 4</t>
-  </si>
-  <si>
-    <t>Boavista,1 0 3 1 0 1</t>
-  </si>
-  <si>
-    <t>Famalicao,3 2 2 1 2 3</t>
-  </si>
-  <si>
-    <t>Farense,2 1 0 2 1 1</t>
-  </si>
-  <si>
-    <t>Gil Vicente,0 1 0 1 1 2</t>
-  </si>
-  <si>
-    <t>Guimaraes,0 0 2 2 1 0</t>
-  </si>
-  <si>
-    <t>Maritimo,1 1 1 0 1 0</t>
-  </si>
-  <si>
-    <t>Moreirense,0 1 0 2 2 1</t>
-  </si>
-  <si>
-    <t>Nacional,1 1 0 2 1 0</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira,0 1 1 1 1 0</t>
-  </si>
-  <si>
-    <t>Portimonense,1 1 0 0 1 0</t>
-  </si>
-  <si>
-    <t>Porto,1 1 3 1 5 3</t>
-  </si>
-  <si>
-    <t>Rio Ave,0 1 0 0 0 0</t>
-  </si>
-  <si>
-    <t>Santa Clara,0 1 3 0 1 2</t>
-  </si>
-  <si>
-    <t>Sp Braga,2 0 0 1 1 2</t>
-  </si>
-  <si>
-    <t>Sp Lisbon,2 1 2 2 1 3</t>
-  </si>
-  <si>
-    <t>Tondela,2 2 0 1 1 0</t>
-  </si>
-  <si>
-    <t>Belenenses,2 1 1 0 1 2</t>
-  </si>
-  <si>
-    <t>Benfica,1 1 0 1 1 3</t>
-  </si>
-  <si>
-    <t>Boavista,2 1 3 1 1 0</t>
-  </si>
-  <si>
-    <t>Famalicao,0 2 3 0 1 0</t>
-  </si>
-  <si>
-    <t>Farense,0 1 0 2 5 0</t>
-  </si>
-  <si>
-    <t>Gil Vicente,3 2 0 0 1 0</t>
-  </si>
-  <si>
-    <t>Guimaraes,1 1 0 2 2 0</t>
-  </si>
-  <si>
-    <t>Maritimo,0 0 0 1 1 0</t>
-  </si>
-  <si>
-    <t>Moreirense,0 1 2 2 1 2</t>
-  </si>
-  <si>
-    <t>Nacional,2 0 2 2 3 3</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira,2 1 0 1 1 2</t>
-  </si>
-  <si>
-    <t>Portimonense,5 1 0 1 2 1</t>
-  </si>
-  <si>
-    <t>Porto,0 1 2 1 1 0</t>
-  </si>
-  <si>
-    <t>Rio Ave,1 1 0 2 1 3</t>
-  </si>
-  <si>
-    <t>Santa Clara,0 2 3 1 0 0</t>
-  </si>
-  <si>
-    <t>Sp Braga,1 1 1 1 1 1</t>
-  </si>
-  <si>
-    <t>Sp Lisbon,2 0 0 0 0 4</t>
-  </si>
-  <si>
-    <t>Tondela,1 2 2 1 3 1</t>
-  </si>
-  <si>
-    <t>Belenenses,4 3 1 1 4 2</t>
-  </si>
-  <si>
-    <t>Benfica,6 3 2 2 4 7</t>
-  </si>
-  <si>
-    <t>Boavista,3 1 6 2 1 1</t>
-  </si>
-  <si>
-    <t>Famalicao,3 4 5 1 3 3</t>
-  </si>
-  <si>
-    <t>Farense,2 2 0 4 6 1</t>
-  </si>
-  <si>
-    <t>Gil Vicente,3 3 0 1 2 2</t>
-  </si>
-  <si>
-    <t>Guimaraes,1 1 2 4 3 0</t>
-  </si>
-  <si>
-    <t>Maritimo,1 1 1 1 2 0</t>
-  </si>
-  <si>
-    <t>Moreirense,0 2 2 4 3 3</t>
-  </si>
-  <si>
-    <t>Nacional,3 1 2 4 4 3</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira,2 2 1 2 2 2</t>
-  </si>
-  <si>
-    <t>Portimonense,6 2 0 1 3 1</t>
-  </si>
-  <si>
-    <t>Porto,1 2 5 2 6 3</t>
-  </si>
-  <si>
-    <t>Rio Ave,1 2 0 2 1 3</t>
-  </si>
-  <si>
-    <t>Santa Clara,0 3 6 1 1 2</t>
-  </si>
-  <si>
-    <t>Sp Braga,3 1 1 2 2 3</t>
-  </si>
-  <si>
-    <t>Sp Lisbon,4 1 2 2 1 7</t>
-  </si>
-  <si>
-    <t>Tondela,3 4 2 2 4 1</t>
+    <t>Belenenses,2 2 0 1 3 0,(8)</t>
+  </si>
+  <si>
+    <t>Benfica,5 2 2 1 3 4,(17)</t>
+  </si>
+  <si>
+    <t>Boavista,1 0 3 1 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Famalicao,3 2 2 1 2 3,(13)</t>
+  </si>
+  <si>
+    <t>Farense,2 1 0 2 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Gil Vicente,0 1 0 1 1 2,(5)</t>
+  </si>
+  <si>
+    <t>Guimaraes,0 0 2 2 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Maritimo,1 1 1 0 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Moreirense,0 1 0 2 2 1,(6)</t>
+  </si>
+  <si>
+    <t>Nacional,1 1 0 2 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira,0 1 1 1 1 0,(4)</t>
+  </si>
+  <si>
+    <t>Portimonense,1 1 0 0 1 0,(3)</t>
+  </si>
+  <si>
+    <t>Porto,1 1 3 1 5 3,(14)</t>
+  </si>
+  <si>
+    <t>Rio Ave,0 1 0 0 0 0,(1)</t>
+  </si>
+  <si>
+    <t>Santa Clara,0 1 3 0 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Sp Braga,2 0 0 1 1 2,(6)</t>
+  </si>
+  <si>
+    <t>Sp Lisbon,2 1 2 2 1 3,(11)</t>
+  </si>
+  <si>
+    <t>Tondela,2 2 0 1 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Belenenses,2 1 1 0 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Benfica,1 1 0 1 1 3,(7)</t>
+  </si>
+  <si>
+    <t>Boavista,2 1 3 1 1 0,(8)</t>
+  </si>
+  <si>
+    <t>Famalicao,0 2 3 0 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Farense,0 1 0 2 5 0,(8)</t>
+  </si>
+  <si>
+    <t>Gil Vicente,3 2 0 0 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Guimaraes,1 1 0 2 2 0,(6)</t>
+  </si>
+  <si>
+    <t>Maritimo,0 0 0 1 1 0,(2)</t>
+  </si>
+  <si>
+    <t>Moreirense,0 1 2 2 1 2,(8)</t>
+  </si>
+  <si>
+    <t>Nacional,2 0 2 2 3 3,(12)</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira,2 1 0 1 1 2,(7)</t>
+  </si>
+  <si>
+    <t>Portimonense,5 1 0 1 2 1,(10)</t>
+  </si>
+  <si>
+    <t>Porto,0 1 2 1 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Rio Ave,1 1 0 2 1 3,(8)</t>
+  </si>
+  <si>
+    <t>Santa Clara,0 2 3 1 0 0,(6)</t>
+  </si>
+  <si>
+    <t>Sp Braga,1 1 1 1 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Sp Lisbon,2 0 0 0 0 4,(6)</t>
+  </si>
+  <si>
+    <t>Tondela,1 2 2 1 3 1,(10)</t>
+  </si>
+  <si>
+    <t>Belenenses,4 3 1 1 4 2,(15)</t>
+  </si>
+  <si>
+    <t>Benfica,6 3 2 2 4 7,(24)</t>
+  </si>
+  <si>
+    <t>Boavista,3 1 6 2 1 1,(14)</t>
+  </si>
+  <si>
+    <t>Famalicao,3 4 5 1 3 3,(19)</t>
+  </si>
+  <si>
+    <t>Farense,2 2 0 4 6 1,(15)</t>
+  </si>
+  <si>
+    <t>Gil Vicente,3 3 0 1 2 2,(11)</t>
+  </si>
+  <si>
+    <t>Guimaraes,1 1 2 4 3 0,(11)</t>
+  </si>
+  <si>
+    <t>Maritimo,1 1 1 1 2 0,(6)</t>
+  </si>
+  <si>
+    <t>Moreirense,0 2 2 4 3 3,(14)</t>
+  </si>
+  <si>
+    <t>Nacional,3 1 2 4 4 3,(17)</t>
+  </si>
+  <si>
+    <t>Pacos Ferreira,2 2 1 2 2 2,(11)</t>
+  </si>
+  <si>
+    <t>Portimonense,6 2 0 1 3 1,(13)</t>
+  </si>
+  <si>
+    <t>Porto,1 2 5 2 6 3,(19)</t>
+  </si>
+  <si>
+    <t>Rio Ave,1 2 0 2 1 3,(9)</t>
+  </si>
+  <si>
+    <t>Santa Clara,0 3 6 1 1 2,(13)</t>
+  </si>
+  <si>
+    <t>Sp Braga,3 1 1 2 2 3,(12)</t>
+  </si>
+  <si>
+    <t>Sp Lisbon,4 1 2 2 1 7,(17)</t>
+  </si>
+  <si>
+    <t>Tondela,3 4 2 2 4 1,(16)</t>
   </si>
   <si>
     <t>Belenenses,Sp Lisbon Gil Vicente Pacos Ferreira Portimonense Tondela Santa Clara</t>

--- a/Divisions/P1.xlsx
+++ b/Divisions/P1.xlsx
@@ -17,13 +17,12 @@
     <sheet name="Red Totals" r:id="rId11" sheetId="9"/>
     <sheet name="OVUN" r:id="rId12" sheetId="10"/>
     <sheet name="Shots Analysis" r:id="rId13" sheetId="11"/>
-    <sheet name="L6" r:id="rId14" sheetId="12"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5877" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5726" uniqueCount="394">
   <si>
     <t>Team</t>
   </si>
@@ -1205,405 +1204,6 @@
   </si>
   <si>
     <t>34.39%</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>Goals scored</t>
-  </si>
-  <si>
-    <t>Goals conceded</t>
-  </si>
-  <si>
-    <t>Total Goals</t>
-  </si>
-  <si>
-    <t>CSForm</t>
-  </si>
-  <si>
-    <t>Win Margin</t>
-  </si>
-  <si>
-    <t>Team against</t>
-  </si>
-  <si>
-    <t>Arouca,D L W D W D</t>
-  </si>
-  <si>
-    <t>Belenenses,L D W W L L</t>
-  </si>
-  <si>
-    <t>Benfica,W D W W D L</t>
-  </si>
-  <si>
-    <t>Boavista,D D L W L D</t>
-  </si>
-  <si>
-    <t>Estoril,L W L D D W</t>
-  </si>
-  <si>
-    <t>Famalicao,W D L D W W</t>
-  </si>
-  <si>
-    <t>Gil Vicente,W D D L D W</t>
-  </si>
-  <si>
-    <t>Guimaraes,W L L W D W</t>
-  </si>
-  <si>
-    <t>Maritimo,D L L W L L</t>
-  </si>
-  <si>
-    <t>Moreirense,L L L W L W</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira,W L W W D L</t>
-  </si>
-  <si>
-    <t>Portimonense,D L L W W L</t>
-  </si>
-  <si>
-    <t>Porto,D W W W W W</t>
-  </si>
-  <si>
-    <t>Santa Clara,D W D W D W</t>
-  </si>
-  <si>
-    <t>Sp Braga,W D L W W W</t>
-  </si>
-  <si>
-    <t>Sp Lisbon,W W W L W W</t>
-  </si>
-  <si>
-    <t>Tondela,L D D L D D</t>
-  </si>
-  <si>
-    <t>Vizela,L D D L W D</t>
-  </si>
-  <si>
-    <t>Arouca,1 0 2 1 1 0,(5)</t>
-  </si>
-  <si>
-    <t>Belenenses,0 0 2 1 0 2,(5)</t>
-  </si>
-  <si>
-    <t>Benfica,3 1 2 3 0 0,(9)</t>
-  </si>
-  <si>
-    <t>Boavista,2 1 0 1 0 1,(5)</t>
-  </si>
-  <si>
-    <t>Estoril,2 2 1 0 2 1,(8)</t>
-  </si>
-  <si>
-    <t>Famalicao,2 0 1 2 3 3,(11)</t>
-  </si>
-  <si>
-    <t>Gil Vicente,2 0 1 1 1 3,(8)</t>
-  </si>
-  <si>
-    <t>Guimaraes,2 1 0 4 1 5,(13)</t>
-  </si>
-  <si>
-    <t>Maritimo,1 0 1 4 0 0,(6)</t>
-  </si>
-  <si>
-    <t>Moreirense,0 0 0 2 1 4,(7)</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira,2 2 2 2 1 0,(9)</t>
-  </si>
-  <si>
-    <t>Portimonense,1 1 1 1 1 2,(7)</t>
-  </si>
-  <si>
-    <t>Porto,1 4 3 7 4 2,(21)</t>
-  </si>
-  <si>
-    <t>Santa Clara,1 3 0 2 2 2,(10)</t>
-  </si>
-  <si>
-    <t>Sp Braga,2 0 0 3 1 1,(7)</t>
-  </si>
-  <si>
-    <t>Sp Lisbon,3 2 2 0 4 4,(15)</t>
-  </si>
-  <si>
-    <t>Tondela,0 1 2 1 1 2,(7)</t>
-  </si>
-  <si>
-    <t>Vizela,0 1 1 0 2 1,(5)</t>
-  </si>
-  <si>
-    <t>Arouca,1 1 1 1 0 0,(4)</t>
-  </si>
-  <si>
-    <t>Belenenses,2 0 0 0 1 3,(6)</t>
-  </si>
-  <si>
-    <t>Benfica,0 1 1 1 0 1,(4)</t>
-  </si>
-  <si>
-    <t>Boavista,2 1 1 0 3 1,(8)</t>
-  </si>
-  <si>
-    <t>Estoril,3 0 2 0 2 0,(7)</t>
-  </si>
-  <si>
-    <t>Famalicao,1 0 2 2 1 2,(8)</t>
-  </si>
-  <si>
-    <t>Gil Vicente,0 0 1 2 1 0,(4)</t>
-  </si>
-  <si>
-    <t>Guimaraes,1 3 1 0 1 0,(6)</t>
-  </si>
-  <si>
-    <t>Maritimo,1 1 3 0 1 1,(7)</t>
-  </si>
-  <si>
-    <t>Moreirense,1 2 1 0 2 1,(7)</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira,1 4 1 0 1 2,(9)</t>
-  </si>
-  <si>
-    <t>Portimonense,1 2 2 0 0 3,(8)</t>
-  </si>
-  <si>
-    <t>Porto,1 0 0 0 2 0,(3)</t>
-  </si>
-  <si>
-    <t>Santa Clara,1 1 0 0 2 0,(4)</t>
-  </si>
-  <si>
-    <t>Sp Braga,1 0 1 2 0 0,(4)</t>
-  </si>
-  <si>
-    <t>Sp Lisbon,0 0 0 2 1 0,(3)</t>
-  </si>
-  <si>
-    <t>Tondela,1 1 2 3 1 2,(10)</t>
-  </si>
-  <si>
-    <t>Vizela,1 1 1 1 1 1,(6)</t>
-  </si>
-  <si>
-    <t>Arouca,2 1 3 2 1 0,(9)</t>
-  </si>
-  <si>
-    <t>Belenenses,2 0 2 1 1 5,(11)</t>
-  </si>
-  <si>
-    <t>Benfica,3 2 3 4 0 1,(13)</t>
-  </si>
-  <si>
-    <t>Boavista,4 2 1 1 3 2,(13)</t>
-  </si>
-  <si>
-    <t>Estoril,5 2 3 0 4 1,(15)</t>
-  </si>
-  <si>
-    <t>Famalicao,3 0 3 4 4 5,(19)</t>
-  </si>
-  <si>
-    <t>Gil Vicente,2 0 2 3 2 3,(12)</t>
-  </si>
-  <si>
-    <t>Guimaraes,3 4 1 4 2 5,(19)</t>
-  </si>
-  <si>
-    <t>Maritimo,2 1 4 4 1 1,(13)</t>
-  </si>
-  <si>
-    <t>Moreirense,1 2 1 2 3 5,(14)</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira,3 6 3 2 2 2,(18)</t>
-  </si>
-  <si>
-    <t>Portimonense,2 3 3 1 1 5,(15)</t>
-  </si>
-  <si>
-    <t>Porto,2 4 3 7 6 2,(24)</t>
-  </si>
-  <si>
-    <t>Santa Clara,2 4 0 2 4 2,(14)</t>
-  </si>
-  <si>
-    <t>Sp Braga,3 0 1 5 1 1,(11)</t>
-  </si>
-  <si>
-    <t>Sp Lisbon,3 2 2 2 5 4,(18)</t>
-  </si>
-  <si>
-    <t>Tondela,1 2 4 4 2 4,(17)</t>
-  </si>
-  <si>
-    <t>Vizela,1 2 2 1 3 2,(11)</t>
-  </si>
-  <si>
-    <t>Arouca,1-1 0-1 2-1 1-1 1-0 0-0</t>
-  </si>
-  <si>
-    <t>Belenenses,0-2 0-0 2-0 1-0 0-1 2-3</t>
-  </si>
-  <si>
-    <t>Benfica,3-0 1-1 2-1 3-1 0-0 0-1</t>
-  </si>
-  <si>
-    <t>Boavista,2-2 1-1 0-1 1-0 0-3 1-1</t>
-  </si>
-  <si>
-    <t>Estoril,2-3 2-0 1-2 0-0 2-2 1-0</t>
-  </si>
-  <si>
-    <t>Famalicao,2-1 0-0 1-2 2-2 3-1 3-2</t>
-  </si>
-  <si>
-    <t>Gil Vicente,2-0 0-0 1-1 1-2 1-1 3-0</t>
-  </si>
-  <si>
-    <t>Guimaraes,2-1 1-3 0-1 4-0 1-1 5-0</t>
-  </si>
-  <si>
-    <t>Maritimo,1-1 0-1 1-3 4-0 0-1 0-1</t>
-  </si>
-  <si>
-    <t>Moreirense,0-1 0-2 0-1 2-0 1-2 4-1</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira,2-1 2-4 2-1 2-0 1-1 0-2</t>
-  </si>
-  <si>
-    <t>Portimonense,1-1 1-2 1-2 1-0 1-0 2-3</t>
-  </si>
-  <si>
-    <t>Porto,1-1 4-0 3-0 7-0 4-2 2-0</t>
-  </si>
-  <si>
-    <t>Santa Clara,1-1 3-1 0-0 2-0 2-2 2-0</t>
-  </si>
-  <si>
-    <t>Sp Braga,2-1 0-0 0-1 3-2 1-0 1-0</t>
-  </si>
-  <si>
-    <t>Sp Lisbon,3-0 2-0 2-0 0-2 4-1 4-0</t>
-  </si>
-  <si>
-    <t>Tondela,0-1 1-1 2-2 1-3 1-1 2-2</t>
-  </si>
-  <si>
-    <t>Vizela,0-1 1-1 1-1 0-1 2-1 1-1</t>
-  </si>
-  <si>
-    <t>Arouca,0 -1 1 0 1 0,(1)</t>
-  </si>
-  <si>
-    <t>Belenenses,-2 0 2 1 -1 -1,(-1)</t>
-  </si>
-  <si>
-    <t>Benfica,3 0 1 2 0 -1,(5)</t>
-  </si>
-  <si>
-    <t>Boavista,0 0 -1 1 -3 0,(-3)</t>
-  </si>
-  <si>
-    <t>Estoril,-1 2 -1 0 0 1,(1)</t>
-  </si>
-  <si>
-    <t>Famalicao,1 0 -1 0 2 1,(3)</t>
-  </si>
-  <si>
-    <t>Gil Vicente,2 0 0 -1 0 3,(4)</t>
-  </si>
-  <si>
-    <t>Guimaraes,1 -2 -1 4 0 5,(7)</t>
-  </si>
-  <si>
-    <t>Maritimo,0 -1 -2 4 -1 -1,(-1)</t>
-  </si>
-  <si>
-    <t>Moreirense,-1 -2 -1 2 -1 3,(0)</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira,1 -2 1 2 0 -2,(0)</t>
-  </si>
-  <si>
-    <t>Portimonense,0 -1 -1 1 1 -1,(-1)</t>
-  </si>
-  <si>
-    <t>Porto,0 4 3 7 2 2,(18)</t>
-  </si>
-  <si>
-    <t>Santa Clara,0 2 0 2 0 2,(6)</t>
-  </si>
-  <si>
-    <t>Sp Braga,1 0 -1 1 1 1,(3)</t>
-  </si>
-  <si>
-    <t>Sp Lisbon,3 2 2 -2 3 4,(12)</t>
-  </si>
-  <si>
-    <t>Tondela,-1 0 0 -2 0 0,(-3)</t>
-  </si>
-  <si>
-    <t>Vizela,-1 0 0 -1 1 0,(-1)</t>
-  </si>
-  <si>
-    <t>Arouca,Moreirense(16) Pacos Ferreira(12) Gil Vicente(5) Santa Clara(7) Portimonense(13) Belenenses(18)</t>
-  </si>
-  <si>
-    <t>Belenenses,Pacos Ferreira(12) Boavista(10) Portimonense(13) Vizela(14) Sp Braga(4) Famalicao(9)</t>
-  </si>
-  <si>
-    <t>Benfica,Guimaraes(6) Vizela(14) Estoril(8) Belenenses(18) Famalicao(9) Porto(1)</t>
-  </si>
-  <si>
-    <t>Boavista,Benfica(3) Sp Braga(4) Porto(1) Arouca(15) Sp Lisbon(2) Guimaraes(6)</t>
-  </si>
-  <si>
-    <t>Estoril,Boavista(10) Portimonense(13) Vizela(14) Sp Braga(4) Belenenses(18) Moreirense(16)</t>
-  </si>
-  <si>
-    <t>Famalicao,Tondela(17) Santa Clara(7) Boavista(10) Gil Vicente(5) Estoril(8) Sp Braga(4)</t>
-  </si>
-  <si>
-    <t>Gil Vicente,Belenenses(18) Estoril(8) Maritimo(11) Moreirense(16) Pacos Ferreira(12) Tondela(17)</t>
-  </si>
-  <si>
-    <t>Guimaraes,Famalicao(9) Sp Lisbon(2) Porto(1) Pacos Ferreira(12) Santa Clara(7) Gil Vicente(5)</t>
-  </si>
-  <si>
-    <t>Maritimo,Sp Lisbon(2) Guimaraes(6) Tondela(17) Boavista(10) Benfica(3) Portimonense(13)</t>
-  </si>
-  <si>
-    <t>Moreirense,Maritimo(11) Sp Lisbon(2) Guimaraes(6) Tondela(17) Boavista(10) Vizela(14)</t>
-  </si>
-  <si>
-    <t>Pacos Ferreira,Vizela(14) Porto(1) Moreirense(16) Maritimo(11) Tondela(17) Benfica(3)</t>
-  </si>
-  <si>
-    <t>Portimonense,Boavista(10) Benfica(3) Sp Braga(4) Famalicao(9) Moreirense(16) Sp Lisbon(2)</t>
-  </si>
-  <si>
-    <t>Porto,Gil Vicente(5) Tondela(17) Santa Clara(7) Portimonense(13) Vizela(14) Estoril(8)</t>
-  </si>
-  <si>
-    <t>Santa Clara,Portimonense(13) Vizela(14) Belenenses(18) Estoril(8) Maritimo(11) Pacos Ferreira(12)</t>
-  </si>
-  <si>
-    <t>Sp Braga,Pacos Ferreira(12) Santa Clara(7) Gil Vicente(5) Benfica(3) Porto(1) Arouca(15)</t>
-  </si>
-  <si>
-    <t>Sp Lisbon,Estoril(8) Arouca(15) Pacos Ferreira(12) Benfica(3) Gil Vicente(5) Santa Clara(7)</t>
-  </si>
-  <si>
-    <t>Tondela,Sp Braga(4) Belenenses(18) Arouca(15) Sp Lisbon(2) Guimaraes(6) Boavista(10)</t>
-  </si>
-  <si>
-    <t>Vizela,Gil Vicente(5) Portimonense(13) Famalicao(9) Sp Braga(4) Arouca(15) Maritimo(11)</t>
   </si>
 </sst>
 </file>
@@ -4643,511 +4243,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1"/>
-      <c r="B1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D1" t="s">
-        <v>396</v>
-      </c>
-      <c r="E1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F1" t="s">
-        <v>398</v>
-      </c>
-      <c r="G1" t="s">
-        <v>399</v>
-      </c>
-      <c r="H1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C2" t="s">
-        <v>419</v>
-      </c>
-      <c r="D2" t="s">
-        <v>437</v>
-      </c>
-      <c r="E2" t="s">
-        <v>455</v>
-      </c>
-      <c r="F2" t="s">
-        <v>473</v>
-      </c>
-      <c r="G2" t="s">
-        <v>491</v>
-      </c>
-      <c r="H2" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>402</v>
-      </c>
-      <c r="C3" t="s">
-        <v>420</v>
-      </c>
-      <c r="D3" t="s">
-        <v>438</v>
-      </c>
-      <c r="E3" t="s">
-        <v>456</v>
-      </c>
-      <c r="F3" t="s">
-        <v>474</v>
-      </c>
-      <c r="G3" t="s">
-        <v>492</v>
-      </c>
-      <c r="H3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>403</v>
-      </c>
-      <c r="C4" t="s">
-        <v>421</v>
-      </c>
-      <c r="D4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E4" t="s">
-        <v>457</v>
-      </c>
-      <c r="F4" t="s">
-        <v>475</v>
-      </c>
-      <c r="G4" t="s">
-        <v>493</v>
-      </c>
-      <c r="H4" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>404</v>
-      </c>
-      <c r="C5" t="s">
-        <v>422</v>
-      </c>
-      <c r="D5" t="s">
-        <v>440</v>
-      </c>
-      <c r="E5" t="s">
-        <v>458</v>
-      </c>
-      <c r="F5" t="s">
-        <v>476</v>
-      </c>
-      <c r="G5" t="s">
-        <v>494</v>
-      </c>
-      <c r="H5" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>405</v>
-      </c>
-      <c r="C6" t="s">
-        <v>423</v>
-      </c>
-      <c r="D6" t="s">
-        <v>441</v>
-      </c>
-      <c r="E6" t="s">
-        <v>459</v>
-      </c>
-      <c r="F6" t="s">
-        <v>477</v>
-      </c>
-      <c r="G6" t="s">
-        <v>495</v>
-      </c>
-      <c r="H6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>406</v>
-      </c>
-      <c r="C7" t="s">
-        <v>424</v>
-      </c>
-      <c r="D7" t="s">
-        <v>442</v>
-      </c>
-      <c r="E7" t="s">
-        <v>460</v>
-      </c>
-      <c r="F7" t="s">
-        <v>478</v>
-      </c>
-      <c r="G7" t="s">
-        <v>496</v>
-      </c>
-      <c r="H7" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>407</v>
-      </c>
-      <c r="C8" t="s">
-        <v>425</v>
-      </c>
-      <c r="D8" t="s">
-        <v>443</v>
-      </c>
-      <c r="E8" t="s">
-        <v>461</v>
-      </c>
-      <c r="F8" t="s">
-        <v>479</v>
-      </c>
-      <c r="G8" t="s">
-        <v>497</v>
-      </c>
-      <c r="H8" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>408</v>
-      </c>
-      <c r="C9" t="s">
-        <v>426</v>
-      </c>
-      <c r="D9" t="s">
-        <v>444</v>
-      </c>
-      <c r="E9" t="s">
-        <v>462</v>
-      </c>
-      <c r="F9" t="s">
-        <v>480</v>
-      </c>
-      <c r="G9" t="s">
-        <v>498</v>
-      </c>
-      <c r="H9" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>409</v>
-      </c>
-      <c r="C10" t="s">
-        <v>427</v>
-      </c>
-      <c r="D10" t="s">
-        <v>445</v>
-      </c>
-      <c r="E10" t="s">
-        <v>463</v>
-      </c>
-      <c r="F10" t="s">
-        <v>481</v>
-      </c>
-      <c r="G10" t="s">
-        <v>499</v>
-      </c>
-      <c r="H10" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>410</v>
-      </c>
-      <c r="C11" t="s">
-        <v>428</v>
-      </c>
-      <c r="D11" t="s">
-        <v>446</v>
-      </c>
-      <c r="E11" t="s">
-        <v>464</v>
-      </c>
-      <c r="F11" t="s">
-        <v>482</v>
-      </c>
-      <c r="G11" t="s">
-        <v>500</v>
-      </c>
-      <c r="H11" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>411</v>
-      </c>
-      <c r="C12" t="s">
-        <v>429</v>
-      </c>
-      <c r="D12" t="s">
-        <v>447</v>
-      </c>
-      <c r="E12" t="s">
-        <v>465</v>
-      </c>
-      <c r="F12" t="s">
-        <v>483</v>
-      </c>
-      <c r="G12" t="s">
-        <v>501</v>
-      </c>
-      <c r="H12" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>412</v>
-      </c>
-      <c r="C13" t="s">
-        <v>430</v>
-      </c>
-      <c r="D13" t="s">
-        <v>448</v>
-      </c>
-      <c r="E13" t="s">
-        <v>466</v>
-      </c>
-      <c r="F13" t="s">
-        <v>484</v>
-      </c>
-      <c r="G13" t="s">
-        <v>502</v>
-      </c>
-      <c r="H13" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>413</v>
-      </c>
-      <c r="C14" t="s">
-        <v>431</v>
-      </c>
-      <c r="D14" t="s">
-        <v>449</v>
-      </c>
-      <c r="E14" t="s">
-        <v>467</v>
-      </c>
-      <c r="F14" t="s">
-        <v>485</v>
-      </c>
-      <c r="G14" t="s">
-        <v>503</v>
-      </c>
-      <c r="H14" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>414</v>
-      </c>
-      <c r="C15" t="s">
-        <v>432</v>
-      </c>
-      <c r="D15" t="s">
-        <v>450</v>
-      </c>
-      <c r="E15" t="s">
-        <v>468</v>
-      </c>
-      <c r="F15" t="s">
-        <v>486</v>
-      </c>
-      <c r="G15" t="s">
-        <v>504</v>
-      </c>
-      <c r="H15" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>415</v>
-      </c>
-      <c r="C16" t="s">
-        <v>433</v>
-      </c>
-      <c r="D16" t="s">
-        <v>451</v>
-      </c>
-      <c r="E16" t="s">
-        <v>469</v>
-      </c>
-      <c r="F16" t="s">
-        <v>487</v>
-      </c>
-      <c r="G16" t="s">
-        <v>505</v>
-      </c>
-      <c r="H16" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>416</v>
-      </c>
-      <c r="C17" t="s">
-        <v>434</v>
-      </c>
-      <c r="D17" t="s">
-        <v>452</v>
-      </c>
-      <c r="E17" t="s">
-        <v>470</v>
-      </c>
-      <c r="F17" t="s">
-        <v>488</v>
-      </c>
-      <c r="G17" t="s">
-        <v>506</v>
-      </c>
-      <c r="H17" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>417</v>
-      </c>
-      <c r="C18" t="s">
-        <v>435</v>
-      </c>
-      <c r="D18" t="s">
-        <v>453</v>
-      </c>
-      <c r="E18" t="s">
-        <v>471</v>
-      </c>
-      <c r="F18" t="s">
-        <v>489</v>
-      </c>
-      <c r="G18" t="s">
-        <v>507</v>
-      </c>
-      <c r="H18" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>418</v>
-      </c>
-      <c r="C19" t="s">
-        <v>436</v>
-      </c>
-      <c r="D19" t="s">
-        <v>454</v>
-      </c>
-      <c r="E19" t="s">
-        <v>472</v>
-      </c>
-      <c r="F19" t="s">
-        <v>490</v>
-      </c>
-      <c r="G19" t="s">
-        <v>508</v>
-      </c>
-      <c r="H19" t="s">
-        <v>526</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1"/>
